--- a/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,13 +384,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -487,6 +487,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42600.881053240744</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>12323</v>
+      </c>
+      <c r="D3">
+        <v>12371</v>
+      </c>
+      <c r="E3">
+        <v>1465</v>
+      </c>
+      <c r="F3">
+        <v>169</v>
+      </c>
+      <c r="G3">
+        <v>112</v>
+      </c>
+      <c r="H3">
+        <v>59</v>
+      </c>
+      <c r="I3">
+        <v>39</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,6 +528,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42602.583622685182</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>9039</v>
+      </c>
+      <c r="D4">
+        <v>10498</v>
+      </c>
+      <c r="E4">
+        <v>1277</v>
+      </c>
+      <c r="F4">
+        <v>156</v>
+      </c>
+      <c r="G4">
+        <v>76</v>
+      </c>
+      <c r="H4">
+        <v>67</v>
+      </c>
+      <c r="I4">
+        <v>32</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>57</v>
+      </c>
+      <c r="M4">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -569,6 +569,47 @@
         <v>42</v>
       </c>
     </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42604.891377314816</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>10073</v>
+      </c>
+      <c r="D5">
+        <v>12103</v>
+      </c>
+      <c r="E5">
+        <v>1369</v>
+      </c>
+      <c r="F5">
+        <v>191</v>
+      </c>
+      <c r="G5">
+        <v>141</v>
+      </c>
+      <c r="H5">
+        <v>57</v>
+      </c>
+      <c r="I5">
+        <v>42</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <v>16</v>
+      </c>
+      <c r="M5">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
@@ -24,48 +24,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
   <si>
+    <t>totalScore</t>
+  </si>
+  <si>
+    <t>posWordPercentage</t>
+  </si>
+  <si>
+    <t>negWordPercentage</t>
+  </si>
+  <si>
+    <t>posPhrasePercentage</t>
+  </si>
+  <si>
+    <t>negPhrasePercentage</t>
+  </si>
+  <si>
+    <t>ElapsedMs</t>
+  </si>
+  <si>
+    <t>wordCount</t>
+  </si>
+  <si>
+    <t>sentenceCount</t>
+  </si>
+  <si>
+    <t>posWordCount</t>
+  </si>
+  <si>
+    <t>negWordCount</t>
+  </si>
+  <si>
+    <t>positivePhraseCount</t>
+  </si>
+  <si>
+    <t>negativePhraseCount</t>
+  </si>
+  <si>
     <t>Method</t>
-  </si>
-  <si>
-    <t>ElapsedMs</t>
-  </si>
-  <si>
-    <t>wordCount</t>
-  </si>
-  <si>
-    <t>sentenceCount</t>
-  </si>
-  <si>
-    <t>posWordCount</t>
-  </si>
-  <si>
-    <t>negWordCount</t>
-  </si>
-  <si>
-    <t>posWordPercentage</t>
-  </si>
-  <si>
-    <t>negWordPercentage</t>
-  </si>
-  <si>
-    <t>positivePhraseCount</t>
-  </si>
-  <si>
-    <t>negativePhraseCount</t>
-  </si>
-  <si>
-    <t>posPhrasePercentage</t>
-  </si>
-  <si>
-    <t>negPhrasePercentage</t>
-  </si>
-  <si>
-    <t>Bag</t>
   </si>
 </sst>
 </file>
@@ -101,9 +101,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,29 +383,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -445,169 +444,8 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>42587.798622685186</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
-      </c>
-      <c r="C2">
-        <v>2929</v>
-      </c>
-      <c r="D2">
-        <v>1035</v>
-      </c>
-      <c r="E2">
-        <v>137</v>
-      </c>
-      <c r="F2">
-        <v>16</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>76</v>
-      </c>
-      <c r="I2">
-        <v>23</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>100</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>42600.881053240744</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>12323</v>
-      </c>
-      <c r="D3">
-        <v>12371</v>
-      </c>
-      <c r="E3">
-        <v>1465</v>
-      </c>
-      <c r="F3">
-        <v>169</v>
-      </c>
-      <c r="G3">
-        <v>112</v>
-      </c>
-      <c r="H3">
-        <v>59</v>
-      </c>
-      <c r="I3">
-        <v>39</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>100</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>42602.583622685182</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>9039</v>
-      </c>
-      <c r="D4">
-        <v>10498</v>
-      </c>
-      <c r="E4">
-        <v>1277</v>
-      </c>
-      <c r="F4">
-        <v>156</v>
-      </c>
-      <c r="G4">
-        <v>76</v>
-      </c>
-      <c r="H4">
-        <v>67</v>
-      </c>
-      <c r="I4">
-        <v>32</v>
-      </c>
-      <c r="J4">
-        <v>4</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>57</v>
-      </c>
-      <c r="M4">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>42604.891377314816</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>10073</v>
-      </c>
-      <c r="D5">
-        <v>12103</v>
-      </c>
-      <c r="E5">
-        <v>1369</v>
-      </c>
-      <c r="F5">
-        <v>191</v>
-      </c>
-      <c r="G5">
-        <v>141</v>
-      </c>
-      <c r="H5">
-        <v>57</v>
-      </c>
-      <c r="I5">
-        <v>42</v>
-      </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
-      <c r="K5">
-        <v>20</v>
-      </c>
-      <c r="L5">
-        <v>16</v>
-      </c>
-      <c r="M5">
-        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Method</t>
+  </si>
+  <si>
+    <t>Bag</t>
   </si>
 </sst>
 </file>
@@ -101,8 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,13 +387,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -405,7 +409,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -446,6 +450,50 @@
       </c>
       <c r="N1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>42605.648634259262</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,6 +496,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42605.888032407405</v>
+      </c>
+      <c r="B3">
+        <v>-30</v>
+      </c>
+      <c r="C3">
+        <v>52</v>
+      </c>
+      <c r="D3">
+        <v>46</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>86</v>
+      </c>
+      <c r="G3">
+        <v>23420</v>
+      </c>
+      <c r="H3">
+        <v>12671</v>
+      </c>
+      <c r="I3">
+        <v>1383</v>
+      </c>
+      <c r="J3">
+        <v>146</v>
+      </c>
+      <c r="K3">
+        <v>128</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>32</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,6 +540,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42606.882581018515</v>
+      </c>
+      <c r="B4">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>61</v>
+      </c>
+      <c r="D4">
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <v>66</v>
+      </c>
+      <c r="F4">
+        <v>33</v>
+      </c>
+      <c r="G4">
+        <v>13456</v>
+      </c>
+      <c r="H4">
+        <v>17107</v>
+      </c>
+      <c r="I4">
+        <v>2095</v>
+      </c>
+      <c r="J4">
+        <v>221</v>
+      </c>
+      <c r="K4">
+        <v>127</v>
+      </c>
+      <c r="L4">
+        <v>12</v>
+      </c>
+      <c r="M4">
+        <v>6</v>
+      </c>
+      <c r="N4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,6 +584,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42607.89025462963</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>55</v>
+      </c>
+      <c r="D5">
+        <v>42</v>
+      </c>
+      <c r="E5">
+        <v>54</v>
+      </c>
+      <c r="F5">
+        <v>45</v>
+      </c>
+      <c r="G5">
+        <v>13120</v>
+      </c>
+      <c r="H5">
+        <v>23309</v>
+      </c>
+      <c r="I5">
+        <v>2718</v>
+      </c>
+      <c r="J5">
+        <v>292</v>
+      </c>
+      <c r="K5">
+        <v>226</v>
+      </c>
+      <c r="L5">
+        <v>12</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,6 +628,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42608.89334490741</v>
+      </c>
+      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>57</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>73</v>
+      </c>
+      <c r="F6">
+        <v>26</v>
+      </c>
+      <c r="G6">
+        <v>14394</v>
+      </c>
+      <c r="H6">
+        <v>26692</v>
+      </c>
+      <c r="I6">
+        <v>3189</v>
+      </c>
+      <c r="J6">
+        <v>358</v>
+      </c>
+      <c r="K6">
+        <v>255</v>
+      </c>
+      <c r="L6">
+        <v>17</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,6 +672,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42611.88689814815</v>
+      </c>
+      <c r="B7">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>57</v>
+      </c>
+      <c r="D7">
+        <v>38</v>
+      </c>
+      <c r="E7">
+        <v>68</v>
+      </c>
+      <c r="F7">
+        <v>31</v>
+      </c>
+      <c r="G7">
+        <v>11829</v>
+      </c>
+      <c r="H7">
+        <v>23721</v>
+      </c>
+      <c r="I7">
+        <v>2660</v>
+      </c>
+      <c r="J7">
+        <v>337</v>
+      </c>
+      <c r="K7">
+        <v>227</v>
+      </c>
+      <c r="L7">
+        <v>15</v>
+      </c>
+      <c r="M7">
+        <v>7</v>
+      </c>
+      <c r="N7" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -716,6 +716,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42612.89402777778</v>
+      </c>
+      <c r="B8">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>56</v>
+      </c>
+      <c r="D8">
+        <v>43</v>
+      </c>
+      <c r="E8">
+        <v>78</v>
+      </c>
+      <c r="F8">
+        <v>21</v>
+      </c>
+      <c r="G8">
+        <v>11412</v>
+      </c>
+      <c r="H8">
+        <v>22075</v>
+      </c>
+      <c r="I8">
+        <v>2405</v>
+      </c>
+      <c r="J8">
+        <v>332</v>
+      </c>
+      <c r="K8">
+        <v>254</v>
+      </c>
+      <c r="L8">
+        <v>30</v>
+      </c>
+      <c r="M8">
+        <v>8</v>
+      </c>
+      <c r="N8" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -760,6 +760,182 @@
         <v>14</v>
       </c>
     </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42613.761018518519</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>54</v>
+      </c>
+      <c r="D9">
+        <v>43</v>
+      </c>
+      <c r="E9">
+        <v>54</v>
+      </c>
+      <c r="F9">
+        <v>28</v>
+      </c>
+      <c r="G9">
+        <v>24747</v>
+      </c>
+      <c r="H9">
+        <v>27948</v>
+      </c>
+      <c r="I9">
+        <v>3135</v>
+      </c>
+      <c r="J9">
+        <v>419</v>
+      </c>
+      <c r="K9">
+        <v>334</v>
+      </c>
+      <c r="L9">
+        <v>28</v>
+      </c>
+      <c r="M9">
+        <v>11</v>
+      </c>
+      <c r="N9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42613.890694444446</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <v>42</v>
+      </c>
+      <c r="E10">
+        <v>51</v>
+      </c>
+      <c r="F10">
+        <v>31</v>
+      </c>
+      <c r="G10">
+        <v>12667</v>
+      </c>
+      <c r="H10">
+        <v>25961</v>
+      </c>
+      <c r="I10">
+        <v>2889</v>
+      </c>
+      <c r="J10">
+        <v>393</v>
+      </c>
+      <c r="K10">
+        <v>326</v>
+      </c>
+      <c r="L10">
+        <v>31</v>
+      </c>
+      <c r="M10">
+        <v>14</v>
+      </c>
+      <c r="N10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42614.88753472222</v>
+      </c>
+      <c r="B11">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>60</v>
+      </c>
+      <c r="D11">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <v>60</v>
+      </c>
+      <c r="F11">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>18171</v>
+      </c>
+      <c r="H11">
+        <v>18158</v>
+      </c>
+      <c r="I11">
+        <v>2005</v>
+      </c>
+      <c r="J11">
+        <v>290</v>
+      </c>
+      <c r="K11">
+        <v>177</v>
+      </c>
+      <c r="L11">
+        <v>38</v>
+      </c>
+      <c r="M11">
+        <v>6</v>
+      </c>
+      <c r="N11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42615.886805555558</v>
+      </c>
+      <c r="B12">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>59</v>
+      </c>
+      <c r="D12">
+        <v>38</v>
+      </c>
+      <c r="E12">
+        <v>59</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12">
+        <v>11517</v>
+      </c>
+      <c r="H12">
+        <v>23194</v>
+      </c>
+      <c r="I12">
+        <v>2606</v>
+      </c>
+      <c r="J12">
+        <v>374</v>
+      </c>
+      <c r="K12">
+        <v>240</v>
+      </c>
+      <c r="L12">
+        <v>40</v>
+      </c>
+      <c r="M12">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -936,6 +936,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>42619.893819444442</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>60</v>
+      </c>
+      <c r="D13">
+        <v>34</v>
+      </c>
+      <c r="E13">
+        <v>60</v>
+      </c>
+      <c r="F13">
+        <v>35</v>
+      </c>
+      <c r="G13">
+        <v>17791</v>
+      </c>
+      <c r="H13">
+        <v>21140</v>
+      </c>
+      <c r="I13">
+        <v>2284</v>
+      </c>
+      <c r="J13">
+        <v>356</v>
+      </c>
+      <c r="K13">
+        <v>200</v>
+      </c>
+      <c r="L13">
+        <v>18</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -980,6 +980,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>42620.889513888891</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>59</v>
+      </c>
+      <c r="D14">
+        <v>38</v>
+      </c>
+      <c r="E14">
+        <v>59</v>
+      </c>
+      <c r="F14">
+        <v>16</v>
+      </c>
+      <c r="G14">
+        <v>21184</v>
+      </c>
+      <c r="H14">
+        <v>19161</v>
+      </c>
+      <c r="I14">
+        <v>2172</v>
+      </c>
+      <c r="J14">
+        <v>272</v>
+      </c>
+      <c r="K14">
+        <v>173</v>
+      </c>
+      <c r="L14">
+        <v>20</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1024,6 +1024,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>42621.892141203702</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>54</v>
+      </c>
+      <c r="D15">
+        <v>37</v>
+      </c>
+      <c r="E15">
+        <v>54</v>
+      </c>
+      <c r="F15">
+        <v>23</v>
+      </c>
+      <c r="G15">
+        <v>31829</v>
+      </c>
+      <c r="H15">
+        <v>34257</v>
+      </c>
+      <c r="I15">
+        <v>3716</v>
+      </c>
+      <c r="J15">
+        <v>499</v>
+      </c>
+      <c r="K15">
+        <v>337</v>
+      </c>
+      <c r="L15">
+        <v>48</v>
+      </c>
+      <c r="M15">
+        <v>15</v>
+      </c>
+      <c r="N15" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1068,6 +1068,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>42622.890451388892</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>62</v>
+      </c>
+      <c r="D16">
+        <v>35</v>
+      </c>
+      <c r="E16">
+        <v>62</v>
+      </c>
+      <c r="F16">
+        <v>24</v>
+      </c>
+      <c r="G16">
+        <v>20402</v>
+      </c>
+      <c r="H16">
+        <v>28943</v>
+      </c>
+      <c r="I16">
+        <v>3220</v>
+      </c>
+      <c r="J16">
+        <v>415</v>
+      </c>
+      <c r="K16">
+        <v>239</v>
+      </c>
+      <c r="L16">
+        <v>44</v>
+      </c>
+      <c r="M16">
+        <v>14</v>
+      </c>
+      <c r="N16" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1112,6 +1112,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>42625.885821759257</v>
+      </c>
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>65</v>
+      </c>
+      <c r="D17">
+        <v>32</v>
+      </c>
+      <c r="E17">
+        <v>77</v>
+      </c>
+      <c r="F17">
+        <v>22</v>
+      </c>
+      <c r="G17">
+        <v>7385</v>
+      </c>
+      <c r="H17">
+        <v>8745</v>
+      </c>
+      <c r="I17">
+        <v>878</v>
+      </c>
+      <c r="J17">
+        <v>183</v>
+      </c>
+      <c r="K17">
+        <v>91</v>
+      </c>
+      <c r="L17">
+        <v>7</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Buy</t>
   </si>
 </sst>
 </file>
@@ -421,7 +424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,6 +587,77 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42632.883506944447</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>15731</v>
+      </c>
+      <c r="F3">
+        <v>1727</v>
+      </c>
+      <c r="G3">
+        <v>61</v>
+      </c>
+      <c r="H3">
+        <v>36</v>
+      </c>
+      <c r="I3">
+        <v>83</v>
+      </c>
+      <c r="J3">
+        <v>16</v>
+      </c>
+      <c r="K3">
+        <v>9198</v>
+      </c>
+      <c r="L3">
+        <v>246</v>
+      </c>
+      <c r="M3">
+        <v>145</v>
+      </c>
+      <c r="N3">
+        <v>25</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.87</v>
+      </c>
+      <c r="S3" s="2">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="T3">
+        <v>-2.08</v>
+      </c>
+      <c r="U3">
+        <v>15.16</v>
+      </c>
+      <c r="V3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Buy</t>
+  </si>
+  <si>
+    <t>Down</t>
   </si>
 </sst>
 </file>
@@ -424,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -445,7 +448,7 @@
     <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,7 +519,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42629.503229166665</v>
       </c>
@@ -587,7 +590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42632.883506944447</v>
       </c>
@@ -655,6 +658,83 @@
         <v>25</v>
       </c>
       <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>-0.93999500000001035</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42633.890567129631</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>22940</v>
+      </c>
+      <c r="F4">
+        <v>2661</v>
+      </c>
+      <c r="G4">
+        <v>65</v>
+      </c>
+      <c r="H4">
+        <v>32</v>
+      </c>
+      <c r="I4">
+        <v>88</v>
+      </c>
+      <c r="J4">
+        <v>11</v>
+      </c>
+      <c r="K4">
+        <v>16213</v>
+      </c>
+      <c r="L4">
+        <v>343</v>
+      </c>
+      <c r="M4">
+        <v>171</v>
+      </c>
+      <c r="N4">
+        <v>38</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.86</v>
+      </c>
+      <c r="S4" s="2">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="T4">
+        <v>-2.66</v>
+      </c>
+      <c r="U4">
+        <v>15.05</v>
+      </c>
+      <c r="V4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4">
         <v>0</v>
       </c>
     </row>

--- a/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Down</t>
+  </si>
+  <si>
+    <t>Up</t>
   </si>
 </sst>
 </file>
@@ -427,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -737,6 +740,83 @@
       <c r="W4">
         <v>0</v>
       </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42634.894895833335</v>
+      </c>
+      <c r="B5">
+        <v>-5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>-14</v>
+      </c>
+      <c r="E5">
+        <v>27144</v>
+      </c>
+      <c r="F5">
+        <v>3057</v>
+      </c>
+      <c r="G5">
+        <v>60</v>
+      </c>
+      <c r="H5">
+        <v>38</v>
+      </c>
+      <c r="I5">
+        <v>33</v>
+      </c>
+      <c r="J5">
+        <v>66</v>
+      </c>
+      <c r="K5">
+        <v>19129</v>
+      </c>
+      <c r="L5">
+        <v>431</v>
+      </c>
+      <c r="M5">
+        <v>273</v>
+      </c>
+      <c r="N5">
+        <v>30</v>
+      </c>
+      <c r="O5">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.86</v>
+      </c>
+      <c r="S5" s="2">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="T5">
+        <v>-1.79</v>
+      </c>
+      <c r="U5">
+        <v>15.14</v>
+      </c>
+      <c r="V5" t="s">
+        <v>25</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Up</t>
+  </si>
+  <si>
+    <t>Sell</t>
   </si>
 </sst>
 </file>
@@ -432,7 +435,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -755,7 +760,7 @@
         <v>-5</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>-14</v>

--- a/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -433,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -822,6 +822,83 @@
       <c r="W5">
         <v>0</v>
       </c>
+      <c r="X5">
+        <v>0.58000199999999325</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42635.895567129628</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>-22</v>
+      </c>
+      <c r="E6">
+        <v>22373</v>
+      </c>
+      <c r="F6">
+        <v>2444</v>
+      </c>
+      <c r="G6">
+        <v>53</v>
+      </c>
+      <c r="H6">
+        <v>42</v>
+      </c>
+      <c r="I6">
+        <v>35</v>
+      </c>
+      <c r="J6">
+        <v>64</v>
+      </c>
+      <c r="K6">
+        <v>36243</v>
+      </c>
+      <c r="L6">
+        <v>296</v>
+      </c>
+      <c r="M6">
+        <v>237</v>
+      </c>
+      <c r="N6">
+        <v>24</v>
+      </c>
+      <c r="O6">
+        <v>44</v>
+      </c>
+      <c r="P6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6">
+        <v>58.148406303511223</v>
+      </c>
+      <c r="R6">
+        <v>0.86</v>
+      </c>
+      <c r="S6" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="T6" s="2">
+        <v>-4.4999999999999997E-3</v>
+      </c>
+      <c r="U6">
+        <v>15.3</v>
+      </c>
+      <c r="V6" t="s">
+        <v>25</v>
+      </c>
+      <c r="W6">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
+    <t>Down</t>
   </si>
 </sst>
 </file>
@@ -427,25 +433,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -595,6 +601,83 @@
       <c r="W2">
         <v>2</v>
       </c>
+      <c r="X2">
+        <v>-2.6900020000000069</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42640.885185185187</v>
+      </c>
+      <c r="B3">
+        <v>-9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>-20</v>
+      </c>
+      <c r="E3">
+        <v>26355</v>
+      </c>
+      <c r="F3">
+        <v>3119</v>
+      </c>
+      <c r="G3">
+        <v>58</v>
+      </c>
+      <c r="H3">
+        <v>38</v>
+      </c>
+      <c r="I3">
+        <v>44</v>
+      </c>
+      <c r="J3">
+        <v>55</v>
+      </c>
+      <c r="K3">
+        <v>22585</v>
+      </c>
+      <c r="L3">
+        <v>389</v>
+      </c>
+      <c r="M3">
+        <v>258</v>
+      </c>
+      <c r="N3">
+        <v>62</v>
+      </c>
+      <c r="O3">
+        <v>78</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3">
+        <v>50.748856178588248</v>
+      </c>
+      <c r="R3">
+        <v>0.85</v>
+      </c>
+      <c r="S3" s="2">
+        <v>1.03E-2</v>
+      </c>
+      <c r="T3" s="2">
+        <v>-2.8799999999999999E-2</v>
+      </c>
+      <c r="U3">
+        <v>14.85</v>
+      </c>
+      <c r="V3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
@@ -439,19 +439,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">

--- a/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Down</t>
+  </si>
+  <si>
+    <t>Up</t>
   </si>
 </sst>
 </file>
@@ -433,25 +436,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -678,6 +681,83 @@
       <c r="W3">
         <v>0</v>
       </c>
+      <c r="X3">
+        <v>1.0200049999999976</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42641.892592592594</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>21011</v>
+      </c>
+      <c r="F4">
+        <v>2207</v>
+      </c>
+      <c r="G4">
+        <v>57</v>
+      </c>
+      <c r="H4">
+        <v>38</v>
+      </c>
+      <c r="I4">
+        <v>76</v>
+      </c>
+      <c r="J4">
+        <v>23</v>
+      </c>
+      <c r="K4">
+        <v>10412</v>
+      </c>
+      <c r="L4">
+        <v>336</v>
+      </c>
+      <c r="M4">
+        <v>224</v>
+      </c>
+      <c r="N4">
+        <v>13</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4">
+        <v>52.89259217263573</v>
+      </c>
+      <c r="R4">
+        <v>0.85</v>
+      </c>
+      <c r="S4" s="2">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="T4" s="2">
+        <v>-1.72E-2</v>
+      </c>
+      <c r="U4">
+        <v>15</v>
+      </c>
+      <c r="V4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
@@ -442,19 +442,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">

--- a/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -436,25 +436,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -758,6 +758,83 @@
       <c r="W4">
         <v>0</v>
       </c>
+      <c r="X4">
+        <v>-1.7900010000000037</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42642.885949074072</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>28135</v>
+      </c>
+      <c r="F5">
+        <v>3239</v>
+      </c>
+      <c r="G5">
+        <v>59</v>
+      </c>
+      <c r="H5">
+        <v>38</v>
+      </c>
+      <c r="I5">
+        <v>90</v>
+      </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <v>34969</v>
+      </c>
+      <c r="L5">
+        <v>428</v>
+      </c>
+      <c r="M5">
+        <v>272</v>
+      </c>
+      <c r="N5">
+        <v>75</v>
+      </c>
+      <c r="O5">
+        <v>7</v>
+      </c>
+      <c r="P5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5">
+        <v>44.970757610277694</v>
+      </c>
+      <c r="R5">
+        <v>0.85</v>
+      </c>
+      <c r="S5" s="2">
+        <v>5.3E-3</v>
+      </c>
+      <c r="T5" s="2">
+        <v>-2.9499999999999998E-2</v>
+      </c>
+      <c r="U5">
+        <v>14.78</v>
+      </c>
+      <c r="V5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -436,25 +436,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -835,6 +835,83 @@
       <c r="W5">
         <v>0</v>
       </c>
+      <c r="X5">
+        <v>-3.0600049999999896</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42643.887152777781</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>28024</v>
+      </c>
+      <c r="F6">
+        <v>3185</v>
+      </c>
+      <c r="G6">
+        <v>59</v>
+      </c>
+      <c r="H6">
+        <v>40</v>
+      </c>
+      <c r="I6">
+        <v>79</v>
+      </c>
+      <c r="J6">
+        <v>20</v>
+      </c>
+      <c r="K6">
+        <v>52077</v>
+      </c>
+      <c r="L6">
+        <v>394</v>
+      </c>
+      <c r="M6">
+        <v>271</v>
+      </c>
+      <c r="N6">
+        <v>67</v>
+      </c>
+      <c r="O6">
+        <v>17</v>
+      </c>
+      <c r="P6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6">
+        <v>43.288956671150856</v>
+      </c>
+      <c r="R6">
+        <v>0.82</v>
+      </c>
+      <c r="S6" s="2">
+        <v>-2.3599999999999999E-2</v>
+      </c>
+      <c r="T6" s="2">
+        <v>-5.5199999999999999E-2</v>
+      </c>
+      <c r="U6">
+        <v>14.35</v>
+      </c>
+      <c r="V6" t="s">
+        <v>27</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -436,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -912,6 +912,83 @@
       <c r="W6">
         <v>1</v>
       </c>
+      <c r="X6">
+        <v>1.1100009999999969</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42646.882523148146</v>
+      </c>
+      <c r="B7">
+        <v>-5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>24270</v>
+      </c>
+      <c r="F7">
+        <v>2844</v>
+      </c>
+      <c r="G7">
+        <v>54</v>
+      </c>
+      <c r="H7">
+        <v>45</v>
+      </c>
+      <c r="I7">
+        <v>84</v>
+      </c>
+      <c r="J7">
+        <v>14</v>
+      </c>
+      <c r="K7">
+        <v>13705</v>
+      </c>
+      <c r="L7">
+        <v>318</v>
+      </c>
+      <c r="M7">
+        <v>266</v>
+      </c>
+      <c r="N7">
+        <v>122</v>
+      </c>
+      <c r="O7">
+        <v>21</v>
+      </c>
+      <c r="P7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7">
+        <v>39.408898325841982</v>
+      </c>
+      <c r="R7">
+        <v>0.84</v>
+      </c>
+      <c r="S7" s="2">
+        <v>-7.1999999999999998E-3</v>
+      </c>
+      <c r="T7" s="2">
+        <v>-3.6700000000000003E-2</v>
+      </c>
+      <c r="U7">
+        <v>14.6</v>
+      </c>
+      <c r="V7" t="s">
+        <v>27</v>
+      </c>
+      <c r="W7">
+        <v>-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Up</t>
+  </si>
+  <si>
+    <t>Neutral</t>
   </si>
 </sst>
 </file>
@@ -436,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,7 +447,7 @@
   <cols>
     <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
@@ -989,6 +992,83 @@
       <c r="W7">
         <v>-2</v>
       </c>
+      <c r="X7">
+        <v>0.11999500000000296</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42647.887002314812</v>
+      </c>
+      <c r="B8">
+        <v>-3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <v>23176</v>
+      </c>
+      <c r="F8">
+        <v>2691</v>
+      </c>
+      <c r="G8">
+        <v>63</v>
+      </c>
+      <c r="H8">
+        <v>34</v>
+      </c>
+      <c r="I8">
+        <v>73</v>
+      </c>
+      <c r="J8">
+        <v>26</v>
+      </c>
+      <c r="K8">
+        <v>27358</v>
+      </c>
+      <c r="L8">
+        <v>332</v>
+      </c>
+      <c r="M8">
+        <v>184</v>
+      </c>
+      <c r="N8">
+        <v>73</v>
+      </c>
+      <c r="O8">
+        <v>26</v>
+      </c>
+      <c r="P8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8">
+        <v>42.459412013272512</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>-1.12E-2</v>
+      </c>
+      <c r="T8" s="2">
+        <v>-3.6700000000000003E-2</v>
+      </c>
+      <c r="U8">
+        <v>14.56</v>
+      </c>
+      <c r="V8" t="s">
+        <v>27</v>
+      </c>
+      <c r="W8">
+        <v>-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -439,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1069,6 +1069,83 @@
       <c r="W8">
         <v>-2</v>
       </c>
+      <c r="X8">
+        <v>0.29000100000000373</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42648.890601851854</v>
+      </c>
+      <c r="B9">
+        <v>-9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>24682</v>
+      </c>
+      <c r="F9">
+        <v>2950</v>
+      </c>
+      <c r="G9">
+        <v>58</v>
+      </c>
+      <c r="H9">
+        <v>37</v>
+      </c>
+      <c r="I9">
+        <v>81</v>
+      </c>
+      <c r="J9">
+        <v>17</v>
+      </c>
+      <c r="K9">
+        <v>34045</v>
+      </c>
+      <c r="L9">
+        <v>344</v>
+      </c>
+      <c r="M9">
+        <v>221</v>
+      </c>
+      <c r="N9">
+        <v>125</v>
+      </c>
+      <c r="O9">
+        <v>27</v>
+      </c>
+      <c r="P9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9">
+        <v>38.916275631518758</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>-7.7999999999999996E-3</v>
+      </c>
+      <c r="T9" s="2">
+        <v>-3.0499999999999999E-2</v>
+      </c>
+      <c r="U9">
+        <v>14.62</v>
+      </c>
+      <c r="V9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W9">
+        <v>-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -439,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1146,6 +1146,83 @@
       <c r="W9">
         <v>-2</v>
       </c>
+      <c r="X9">
+        <v>0.47000100000001055</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42649.886817129627</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>19184</v>
+      </c>
+      <c r="F10">
+        <v>2333</v>
+      </c>
+      <c r="G10">
+        <v>54</v>
+      </c>
+      <c r="H10">
+        <v>44</v>
+      </c>
+      <c r="I10">
+        <v>84</v>
+      </c>
+      <c r="J10">
+        <v>15</v>
+      </c>
+      <c r="K10">
+        <v>10901</v>
+      </c>
+      <c r="L10">
+        <v>239</v>
+      </c>
+      <c r="M10">
+        <v>194</v>
+      </c>
+      <c r="N10">
+        <v>99</v>
+      </c>
+      <c r="O10">
+        <v>18</v>
+      </c>
+      <c r="P10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10">
+        <v>35.958706302092025</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>-1.9E-3</v>
+      </c>
+      <c r="T10" s="2">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="U10">
+        <v>14.71</v>
+      </c>
+      <c r="V10" t="s">
+        <v>27</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -439,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1223,6 +1223,83 @@
       <c r="W10">
         <v>0</v>
       </c>
+      <c r="X10">
+        <v>-0.80999699999999564</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42650.882870370369</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>32094</v>
+      </c>
+      <c r="F11">
+        <v>3795</v>
+      </c>
+      <c r="G11">
+        <v>51</v>
+      </c>
+      <c r="H11">
+        <v>41</v>
+      </c>
+      <c r="I11">
+        <v>84</v>
+      </c>
+      <c r="J11">
+        <v>14</v>
+      </c>
+      <c r="K11">
+        <v>40751</v>
+      </c>
+      <c r="L11">
+        <v>428</v>
+      </c>
+      <c r="M11">
+        <v>342</v>
+      </c>
+      <c r="N11">
+        <v>138</v>
+      </c>
+      <c r="O11">
+        <v>24</v>
+      </c>
+      <c r="P11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11">
+        <v>27.938232135268166</v>
+      </c>
+      <c r="R11">
+        <v>0.84</v>
+      </c>
+      <c r="S11" s="2">
+        <v>-1.38E-2</v>
+      </c>
+      <c r="T11" s="2">
+        <v>-3.2500000000000001E-2</v>
+      </c>
+      <c r="U11">
+        <v>14.53</v>
+      </c>
+      <c r="V11" t="s">
+        <v>27</v>
+      </c>
+      <c r="W11">
+        <v>-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
@@ -445,19 +445,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">

--- a/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -439,25 +439,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -1300,6 +1300,83 @@
       <c r="W11">
         <v>-2</v>
       </c>
+      <c r="X11">
+        <v>-0.38999900000000309</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42653.881261574075</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>32</v>
+      </c>
+      <c r="E12">
+        <v>18464</v>
+      </c>
+      <c r="F12">
+        <v>2143</v>
+      </c>
+      <c r="G12">
+        <v>61</v>
+      </c>
+      <c r="H12">
+        <v>35</v>
+      </c>
+      <c r="I12">
+        <v>87</v>
+      </c>
+      <c r="J12">
+        <v>12</v>
+      </c>
+      <c r="K12">
+        <v>10935</v>
+      </c>
+      <c r="L12">
+        <v>256</v>
+      </c>
+      <c r="M12">
+        <v>149</v>
+      </c>
+      <c r="N12">
+        <v>85</v>
+      </c>
+      <c r="O12">
+        <v>12</v>
+      </c>
+      <c r="P12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12">
+        <v>29.009773492518704</v>
+      </c>
+      <c r="R12">
+        <v>0.84</v>
+      </c>
+      <c r="S12" s="2">
+        <v>-1.3599999999999999E-2</v>
+      </c>
+      <c r="T12" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="U12">
+        <v>14.53</v>
+      </c>
+      <c r="V12" t="s">
+        <v>27</v>
+      </c>
+      <c r="W12">
+        <v>-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/CELG/CELGBag.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -439,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1377,6 +1377,83 @@
       <c r="W12">
         <v>-2</v>
       </c>
+      <c r="X12">
+        <v>-0.16000300000000323</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>42654.894490740742</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>21700</v>
+      </c>
+      <c r="F13">
+        <v>2567</v>
+      </c>
+      <c r="G13">
+        <v>54</v>
+      </c>
+      <c r="H13">
+        <v>44</v>
+      </c>
+      <c r="I13">
+        <v>73</v>
+      </c>
+      <c r="J13">
+        <v>26</v>
+      </c>
+      <c r="K13">
+        <v>12049</v>
+      </c>
+      <c r="L13">
+        <v>270</v>
+      </c>
+      <c r="M13">
+        <v>222</v>
+      </c>
+      <c r="N13">
+        <v>70</v>
+      </c>
+      <c r="O13">
+        <v>25</v>
+      </c>
+      <c r="P13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13">
+        <v>28.689659976213832</v>
+      </c>
+      <c r="R13">
+        <v>0.84</v>
+      </c>
+      <c r="S13" s="2">
+        <v>-1.2500000000000001E-2</v>
+      </c>
+      <c r="T13" s="2">
+        <v>-2.6100000000000002E-2</v>
+      </c>
+      <c r="U13">
+        <v>14.56</v>
+      </c>
+      <c r="V13" t="s">
+        <v>27</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
